--- a/data/trans_bre/P2A_lim_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,27%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 2,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 1,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,57; 56,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; 70,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; 45,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,73; 15,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,49%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 3,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 5,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 4,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 10,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,8; 50,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 62,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 80,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 174,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,92%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 4,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 4,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 5,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 50,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 88,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,45; 69,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 169,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,27; 384,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 4,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 2,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 82,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 63,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 60,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,0; 29,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,71%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 2,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 20,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 45,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,14; 41,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 46,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 170,32</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_lim_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Habitat-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-7,9%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,28</t>
+          <t>-2,12; 2,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,58</t>
+          <t>-1,38; 5,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,44</t>
+          <t>-2,49; 3,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,95</t>
+          <t>-4,94; 2,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 56,2</t>
+          <t>-34,62; 62,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 70,0</t>
+          <t>-12,84; 71,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 45,9</t>
+          <t>-24,51; 49,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 15,44</t>
+          <t>-30,53; 16,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>40,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,12</t>
+          <t>-1,85; 3,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,18</t>
+          <t>-0,84; 5,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,61</t>
+          <t>-0,27; 4,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 10,71</t>
+          <t>0,36; 11,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 50,36</t>
+          <t>-22,2; 53,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 62,21</t>
+          <t>-7,34; 59,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 80,02</t>
+          <t>-3,71; 87,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 174,14</t>
+          <t>2,62; 183,22</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,17 +830,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,79%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>117,92%</t>
+          <t>116,01%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,88</t>
+          <t>-1,24; 4,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,77</t>
+          <t>-2,08; 4,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,18</t>
+          <t>0,25; 4,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 50,8</t>
+          <t>-1,82; 48,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 88,52</t>
+          <t>-17,25; 88,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 69,71</t>
+          <t>-19,79; 66,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 169,42</t>
+          <t>3,27; 150,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 384,58</t>
+          <t>-11,2; 359,88</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-0,87%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,03</t>
+          <t>0,16; 5,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,37</t>
+          <t>-0,48; 5,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,17</t>
+          <t>-1,29; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,93</t>
+          <t>-3,15; 2,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 82,34</t>
+          <t>1,85; 84,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 63,76</t>
+          <t>-4,7; 61,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 60,71</t>
+          <t>-13,75; 54,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 29,18</t>
+          <t>-24,17; 25,29</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1040,22 +1040,22 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,41%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,69</t>
+          <t>0,07; 2,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,56</t>
+          <t>0,45; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,91</t>
+          <t>0,35; 2,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 20,42</t>
+          <t>0,38; 20,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 45,4</t>
+          <t>0,46; 44,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 41,42</t>
+          <t>4,5; 41,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 46,21</t>
+          <t>4,3; 46,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 170,32</t>
+          <t>2,86; 191,86</t>
         </is>
       </c>
     </row>
